--- a/static/templet/销售出库.xlsx
+++ b/static/templet/销售出库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>*货主编码</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>*客户编码</t>
+  </si>
+  <si>
+    <t>*客户类型(1:客户;2:供应商)</t>
   </si>
   <si>
     <t>*要货数量</t>
@@ -96,14 +99,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,15 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,36 +215,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,28 +226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -223,17 +234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,16 +446,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,11 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,21 +524,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,17 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -547,145 +550,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,10 +1062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1070,15 +1073,16 @@
     <col min="1" max="1" width="14.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="16.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="14.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="13.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="14.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="29.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="12.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="14.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,50 +1113,56 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
-        <v>42929</v>
+      <c r="E2" s="1">
+        <v>1</v>
       </c>
       <c r="F2" s="3">
         <v>42929</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
+      <c r="G2" s="3">
+        <v>42929</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:C1">
+  <conditionalFormatting sqref="B1:D1">
     <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:D2">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H2">
+  <conditionalFormatting sqref="H2:I2">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
+  <conditionalFormatting sqref="K2">
     <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
